--- a/medicine/Œil et vue/Efficacité_lumineuse_spectrale/Efficacité_lumineuse_spectrale.xlsx
+++ b/medicine/Œil et vue/Efficacité_lumineuse_spectrale/Efficacité_lumineuse_spectrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Efficacit%C3%A9_lumineuse_spectrale</t>
+          <t>Efficacité_lumineuse_spectrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'efficacité lumineuse spectrale est une fonction qui exprime, pour une longueur d'onde donnée, le rapport entre le flux énergétique du rayonnement électromagnétique reçu et la perception de flux lumineux que ce flux induit pour la vision humaine. Elle caractérise la sensibilité du système visuel humain aux différentes longueurs d'onde. Elle s'exprime, dans le Système international d'unités, en lumens par watt (lm/W). 
 L'efficacité lumineuse spectrale relie les grandeurs photométriques aux grandeurs radiométriques. 
@@ -507,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Efficacit%C3%A9_lumineuse_spectrale</t>
+          <t>Efficacité_lumineuse_spectrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,17 +537,19 @@
           <t>Vision humaine et grandeur photométrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tandis que l'objet de la radiométrie est la mesure du rayonnement sur tout ou partie du spectre électromagnétique, la photométrie s'intéresse uniquement aux rayonnements visibles et quantifie l'impression visuelle qu'ils provoquent. Des sources de puissances rayonnées identiques, mais dont les répartitions spectrales diffèrent, peuvent être perçues avec des éclats très différents. Tout particulièrement, les sources infrarouges ou ultraviolettes ne sont pas visibles, quelle que soit leur puissance. Aussi, la première évaluation de la sensibilité du système visuel humain, longueur d'onde par longueur d'onde, c'est-à-dire couleur pure par couleur pure, par le biais de la première fonction d'efficacité lumineuse, fut un acte fondateur de la photométrie. Depuis, trois autres fonctions d'efficacité lumineuse spectrale tabulées ont été normalisées à sa suite par la CIE. D'autres ont été publiées mais ne sont pas encore normalisées[1].
+Tandis que l'objet de la radiométrie est la mesure du rayonnement sur tout ou partie du spectre électromagnétique, la photométrie s'intéresse uniquement aux rayonnements visibles et quantifie l'impression visuelle qu'ils provoquent. Des sources de puissances rayonnées identiques, mais dont les répartitions spectrales diffèrent, peuvent être perçues avec des éclats très différents. Tout particulièrement, les sources infrarouges ou ultraviolettes ne sont pas visibles, quelle que soit leur puissance. Aussi, la première évaluation de la sensibilité du système visuel humain, longueur d'onde par longueur d'onde, c'est-à-dire couleur pure par couleur pure, par le biais de la première fonction d'efficacité lumineuse, fut un acte fondateur de la photométrie. Depuis, trois autres fonctions d'efficacité lumineuse spectrale tabulées ont été normalisées à sa suite par la CIE. D'autres ont été publiées mais ne sont pas encore normalisées.
 Dans le domaine photopique :
         V
         (
         λ
         )
     {\displaystyle V(\lambda )}
- (CIE 1924) la première d'entre elles, définit l'observateur de référence en vision diurne pour un champ visuel de 2°[2] ; elle est aussi la fonction colorimétrique 
+ (CIE 1924) la première d'entre elles, définit l'observateur de référence en vision diurne pour un champ visuel de 2° ; elle est aussi la fonction colorimétrique 
             y
             ¯
         (
@@ -549,7 +563,7 @@
         λ
         )
     {\displaystyle V_{M}(\lambda )}
- (CIE 1988) apporte une correction à la précédente[3].
+ (CIE 1988) apporte une correction à la précédente.
           V
             10
         (
@@ -572,7 +586,7 @@
         λ
         )
     {\displaystyle V'(\lambda )}
- (CIE 1951) définit l'observateur de référence en vision nocturne[4].
+ (CIE 1951) définit l'observateur de référence en vision nocturne.
 La fonction d'efficacité lumineuse spectrale permet de calculer une grandeur photométrique 
           X
               v
@@ -701,7 +715,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Efficacit%C3%A9_lumineuse_spectrale</t>
+          <t>Efficacité_lumineuse_spectrale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -721,9 +735,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vision photopique
-En vision photopique, plus fréquemment nommée vision diurne dans le langage courant, seuls les cônes permettent la vision.
-Champ visuel de 2° : 
+          <t>Vision photopique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En vision photopique, plus fréquemment nommée vision diurne dans le langage courant, seuls les cônes permettent la vision.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Efficacité_lumineuse_spectrale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Efficacit%C3%A9_lumineuse_spectrale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fonctions normalisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vision photopique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Champ visuel de 2° : 
         V
         (
         λ
@@ -736,21 +790,26 @@
         λ
         )
     {\displaystyle V_{M}(\lambda )}
-La fonction d'efficacité spectrale photopique mesurée sur un angle de champ visuel de 2° fut normalisée en 1924 et notée 
+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fonction d'efficacité spectrale photopique mesurée sur un angle de champ visuel de 2° fut normalisée en 1924 et notée 
         V
         (
         λ
         )
     {\displaystyle V(\lambda )}
 .   
-D'abord, l'efficacité lumineuse spectrale maximale, en lien avec la définition de la candela[5], est d'environ 683,002 lm/W[6], correspondant à une à une longueur d'onde de 555 nm dans l'air (jaune–vert)[7]. Cette valeur est souvent arrondie à 683 lm/W[6], compte tenu du fait que le seuil de discrimination humain des luminances est au mieux de 1%[8].
+D'abord, l'efficacité lumineuse spectrale maximale, en lien avec la définition de la candela, est d'environ 683,002 lm/W, correspondant à une à une longueur d'onde de 555 nm dans l'air (jaune–vert). Cette valeur est souvent arrondie à 683 lm/W, compte tenu du fait que le seuil de discrimination humain des luminances est au mieux de 1%.
 Ensuite, les valeurs tabulées de la fonction d'efficacité lumineuse spectrale relative 
         V
         (
         λ
         )
     {\displaystyle V(\lambda )}
- sont données dans le tableau qui suit. Elles fixent le maximum de sensibilité de l'observateur de référence à une longueur d'onde de 555 nm. Elles sont définies de 360 nm à 830 nm par pas de 5 nm[9], mais des méthodes d'interpolation permettent d'obtenir des valeurs par pas de 1 nm[10]. Ces valeurs sont également utilisées pour définir la fonction colorimétrique 
+ sont données dans le tableau qui suit. Elles fixent le maximum de sensibilité de l'observateur de référence à une longueur d'onde de 555 nm. Elles sont définies de 360 nm à 830 nm par pas de 5 nm, mais des méthodes d'interpolation permettent d'obtenir des valeurs par pas de 1 nm. Ces valeurs sont également utilisées pour définir la fonction colorimétrique 
             y
             ¯
         (
@@ -758,14 +817,14 @@
         )
     {\displaystyle {\overline {y}}(\lambda )}
  du système CIE XYZ 1931.
-Elle fut proposée par Gibson et Tyndall en 1923[11] à partir de mesures effectuées dans des conditions différentes aboutissant à des résultats parfois très différents[12]. C'est pourquoi, à la suite des travaux de D. B. Judd (1951) puis de Vos (1978)[13], une modification fut apportée en 1988[3] à la fonction d'efficacité lumineuse spectrale relative entre 380 et 460 nm : elle est notée 
+Elle fut proposée par Gibson et Tyndall en 1923 à partir de mesures effectuées dans des conditions différentes aboutissant à des résultats parfois très différents. C'est pourquoi, à la suite des travaux de D. B. Judd (1951) puis de Vos (1978), une modification fut apportée en 1988 à la fonction d'efficacité lumineuse spectrale relative entre 380 et 460 nm : elle est notée 
           V
             M
         (
         λ
         )
     {\displaystyle V_{M}(\lambda )}
- ; l'efficacité lumineuse spectrale maximale reste la même. Malgré ses avantages, cette fonction reste peu utilisée en dehors des laboratoires de recherche[1].
+ ; l'efficacité lumineuse spectrale maximale reste la même. Malgré ses avantages, cette fonction reste peu utilisée en dehors des laboratoires de recherche.
 Valeurs tabulées des fonctions d'efficacité lumineuse spectrales relatives 
         V
         (
@@ -780,13 +839,54 @@
         )
     {\displaystyle V_{M}(\lambda )}
 Les couleurs représentées sont indicatives et ne correspondent évidemment pas à des lumières monochromatiques : elles ont été calculées afin de présenter une longueur d'onde dominante égale à la longueur d'onde à représenter.
-Champ visuel de 10° : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Efficacité_lumineuse_spectrale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Efficacit%C3%A9_lumineuse_spectrale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonctions normalisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vision photopique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Champ visuel de 10° : 
           V
             10
         (
         λ
         )
     {\displaystyle V_{10}(\lambda )}
+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La fonction d'efficacité spectrale photopique mesurée sur un angle de champ visuel de 10°, notée 
           V
             10
@@ -802,7 +902,7 @@
         λ
         )
     {\displaystyle {\overline {y}}_{10}(\lambda )}
-, d'après les travaux de Stiles et Burch (1959)[14]. L'efficacité lumineuse relative maximale est fixée à 683,6 lm/W, correspondant à une longueur d'onde de 557 nm dans l'air[15]. 
+, d'après les travaux de Stiles et Burch (1959). L'efficacité lumineuse relative maximale est fixée à 683,6 lm/W, correspondant à une longueur d'onde de 557 nm dans l'air. 
 Valeurs tabulées de la fonction d'efficacité lumineuse spectrale relative 
           V
             10
@@ -810,15 +910,50 @@
         λ
         )
     {\displaystyle V_{10}(\lambda )}
-[16]
-Vision scotopique : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Efficacité_lumineuse_spectrale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Efficacit%C3%A9_lumineuse_spectrale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fonctions normalisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vision scotopique : 
           V
           ′
         (
         λ
         )
     {\displaystyle V'(\lambda )}
-La formulation est identique à celle de la vision photopique, mais la sensibilité de l'œil humain est différente en vision nocturne, seuls les bâtonnets permettent la vision. L'efficacité lumineuse relative maximale est fixée à 1 700 lm/W, correspondant à une longueur d'onde de 507 nm dans l'air. L'efficacité lumineuse spectrale relative est notée 
+</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formulation est identique à celle de la vision photopique, mais la sensibilité de l'œil humain est différente en vision nocturne, seuls les bâtonnets permettent la vision. L'efficacité lumineuse relative maximale est fixée à 1 700 lm/W, correspondant à une longueur d'onde de 507 nm dans l'air. L'efficacité lumineuse spectrale relative est notée 
           V
           ′
         (
@@ -833,39 +968,40 @@
         λ
         )
     {\displaystyle V'(\lambda )}
-[17]
 La luminance des gris du tableau est proportionnelle aux coefficients.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Efficacit%C3%A9_lumineuse_spectrale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Efficacité_lumineuse_spectrale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Œil et vue/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Efficacit%C3%A9_lumineuse_spectrale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Mesure de l'efficacité lumineuse spectrale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La mesure est effectuée en comparant deux lumières monochromatiques de longueurs d'onde différentes. La première servant de référence, un observateur modifie la luminance énergétique de la seconde jusqu'à égalisation de la sensation de luminosité des deux couleurs. Dans le domaine scotopique, sans vision des couleurs, l'établissement des courbes de sensibilité spectrale se fait, après un long délai d'adaptation visuelle aux faibles lumières, en réglant la radiance de lumières monochromatiques de longueur d'onde variées, pour que leur luminosité soit égales. En vision photopique, en revanche, on ne peut procéder que de proche en proche. La comparaison de la luminosité de deux lumières monochromatiques de longueur d'onde très différente est en effet très difficile, il est impossible d'égaliser de façon précise et répétable deux couleurs très différentes, et deux essais consécutifs aboutissent souvent à des résultats différents[18]. La mesure de l'efficacité lumineuse spectrale est compliquée par le fait que les résultats diffèrent considérablement selon les différentes méthodes, mais aussi selon les différents individus testés[1]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La mesure est effectuée en comparant deux lumières monochromatiques de longueurs d'onde différentes. La première servant de référence, un observateur modifie la luminance énergétique de la seconde jusqu'à égalisation de la sensation de luminosité des deux couleurs. Dans le domaine scotopique, sans vision des couleurs, l'établissement des courbes de sensibilité spectrale se fait, après un long délai d'adaptation visuelle aux faibles lumières, en réglant la radiance de lumières monochromatiques de longueur d'onde variées, pour que leur luminosité soit égales. En vision photopique, en revanche, on ne peut procéder que de proche en proche. La comparaison de la luminosité de deux lumières monochromatiques de longueur d'onde très différente est en effet très difficile, il est impossible d'égaliser de façon précise et répétable deux couleurs très différentes, et deux essais consécutifs aboutissent souvent à des résultats différents. La mesure de l'efficacité lumineuse spectrale est compliquée par le fait que les résultats diffèrent considérablement selon les différentes méthodes, mais aussi selon les différents individus testés. 
 Il existe ou a existé de nombreuses méthodes  – comparaison directe hétérochrome de luminosité, comparaison pas-à-pas de luminosité, distinction minimale du bord, comparaison par papillotement hétérochrome, etc. – dont les grands principes sont précisés ci-après.
 Comparaison directe
 On présente deux plages, dont le sujet peut faire varier la luminosité, généralement par la variation de distance de la source de lumière, sur un fond éclairé uniformément avec une luminosité nettement différente. En raison de la loi du contraste simultané des couleurs, la différence est plus perceptible, et donc le réglage est plus fin, si les plages sont contiguës.
